--- a/Doc/excel/testConst.xlsx
+++ b/Doc/excel/testConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="10305"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>名字</t>
   </si>
@@ -30,25 +30,121 @@
     <t>描述</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
     <t>数值测试</t>
   </si>
   <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>数值测试2</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>数值测试3</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>65464发送到asdfa</t>
+    <t>字符串类型测试</t>
   </si>
   <si>
     <t>字符串测试</t>
   </si>
   <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>字符串测试2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>字符串测试3</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>boolean</t>
   </si>
   <si>
     <t>布尔值测试</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>布尔值测试1</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>布尔值测试2</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>unll</t>
+  </si>
+  <si>
+    <t>布尔值测试3</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>布尔值测试4</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>布尔值测试5</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>其他类型测试</t>
+  </si>
+  <si>
+    <t>o2</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>其他类型测试1</t>
+  </si>
+  <si>
+    <t>o3</t>
+  </si>
+  <si>
+    <t>其他类型测试2</t>
   </si>
 </sst>
 </file>
@@ -57,9 +153,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,6 +173,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -85,30 +209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,15 +225,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,6 +259,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -153,14 +289,13 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -168,47 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,187 +319,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,15 +510,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,50 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +562,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1058,43 +1154,218 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="9:9">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/excel/testConst.xlsx
+++ b/Doc/excel/testConst.xlsx
@@ -154,8 +154,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -166,6 +166,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -181,37 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,9 +210,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,11 +232,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,21 +255,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -282,29 +297,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,19 +319,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +439,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,139 +493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,6 +510,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,35 +569,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +593,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -618,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,142 +630,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1124,7 +1121,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1164,27 +1161,27 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1210,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -1223,147 +1220,146 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7"/>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="b">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Doc/excel/testConst.xlsx
+++ b/Doc/excel/testConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,37 +166,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,7 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +205,59 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,70 +280,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,12 +319,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,169 +439,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,21 +524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,11 +552,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,15 +610,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1207,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
